--- a/biology/Médecine/Liste_d'hôpitaux_en_Suisse/Liste_d'hôpitaux_en_Suisse.xlsx
+++ b/biology/Médecine/Liste_d'hôpitaux_en_Suisse/Liste_d'hôpitaux_en_Suisse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27h%C3%B4pitaux_en_Suisse</t>
+          <t>Liste_d'hôpitaux_en_Suisse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2022, la Suisse comptait 278 hôpitaux – 101 hôpitaux de soin généraux, 52 cliniques spécialisées en psychiatriques, 51 cliniques de réadaptation et 74 autres cliniques spécialisées[1]. En 2022, ces hôpitaux ont reçus 1,49 million d'hospitalisations et ont généré des coûts de fonctionnement de 33,9 milliards de francs[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2022, la Suisse comptait 278 hôpitaux – 101 hôpitaux de soin généraux, 52 cliniques spécialisées en psychiatriques, 51 cliniques de réadaptation et 74 autres cliniques spécialisées. En 2022, ces hôpitaux ont reçus 1,49 million d'hospitalisations et ont généré des coûts de fonctionnement de 33,9 milliards de francs.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27h%C3%B4pitaux_en_Suisse</t>
+          <t>Liste_d'hôpitaux_en_Suisse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des hopitaux de Suisse de plus de 550 lits[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des hopitaux de Suisse de plus de 550 lits.
 </t>
         </is>
       </c>
